--- a/数据整理/stocks/A股/深证主板/000783-长江证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000783-长江证券.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>95.40</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.94</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009904</t>
+          <t>257040</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>民生加银中证200指数增强A</t>
+          <t>国联安红利混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -594,25 +634,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009905</t>
+          <t>009904</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>民生加银中证200指数增强C</t>
+          <t>民生加银中证200指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.93</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.64</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>257040</t>
+          <t>009905</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安红利混合</t>
+          <t>民生加银中证200指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.98</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000783-长江证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000783-长江证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000783-长江证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000783-长江证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,172 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000783-长江证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000783-长江证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1009,4 +1010,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000783-长江证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000783-长江证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1018,7 +1019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,17 +1030,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1049,14 +1070,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1065,14 +1108,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1081,14 +1146,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1097,13 +1184,339 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000783-长江证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000783-长江证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1415,7 +1416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1426,17 +1427,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1446,14 +1467,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.76</v>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1462,14 +1505,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.23</v>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1478,14 +1543,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1494,14 +1581,134 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -1510,13 +1717,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000783-长江证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000783-长江证券.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1622,7 +1623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1633,17 +1634,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1653,14 +1674,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3</v>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1669,14 +1712,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.76</v>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1685,14 +1750,118 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5">
@@ -1701,14 +1870,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
@@ -1717,14 +1886,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -1733,13 +1902,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000783-长江证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000783-长江证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.76</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -600,6 +617,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -767,7 +1068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -973,7 +1274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1369,7 +1670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1537,7 +1838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1669,7 +1970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1839,7 +2140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
